--- a/department/danh-sach-giang-day.xlsx
+++ b/department/danh-sach-giang-day.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="36">
   <si>
     <t>Năm học</t>
   </si>
@@ -26,7 +26,10 @@
     <t>Bộ môn</t>
   </si>
   <si>
-    <t>Môn giảng dạy</t>
+    <t>Mã môn học</t>
+  </si>
+  <si>
+    <t>Tên môn học</t>
   </si>
   <si>
     <t>Giảng viên</t>
@@ -44,7 +47,7 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>2021-2022</t>
+    <t>2023-2024</t>
   </si>
   <si>
     <t>2</t>
@@ -56,22 +59,67 @@
     <t>Khoa học máy tính</t>
   </si>
   <si>
-    <t>Xử lý ảnh</t>
+    <t>TH02044</t>
+  </si>
+  <si>
+    <t>Kiến trúc máy tính</t>
   </si>
   <si>
     <t>Vũ ThịLưu</t>
   </si>
   <si>
-    <t>K65CNTTA, K65CNTTB</t>
+    <t>K67MMTA, K67TTNTA</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Chưa hoàn thiện</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>K68CNTTA</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Chưa hoàn thiện</t>
-  </si>
-  <si>
-    <t/>
+    <t>K68CNTTB</t>
+  </si>
+  <si>
+    <t>K68CNTTC</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>K68CNTTD</t>
+  </si>
+  <si>
+    <t>K68CNTTE</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>K68CNTTF</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>TH02015</t>
+  </si>
+  <si>
+    <t>Nguyên lý hệ điều hành</t>
+  </si>
+  <si>
+    <t>K67CNPMB</t>
+  </si>
+  <si>
+    <t>K67CNPMC</t>
   </si>
 </sst>
 </file>
@@ -116,7 +164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -153,37 +201,323 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
         <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
